--- a/Transformed_Dataset/T_SI_2003.xlsx
+++ b/Transformed_Dataset/T_SI_2003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\ISSA Project\Transformed_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\Sikkim-Rainfall-Prediction\Transformed_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC88E9C-41CE-4797-B4AA-25518EC3265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2D897-E2C8-4546-BD91-A5EF184E0C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3F7A1AAE-89CA-4A34-BD71-72DD2B43904C}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
-    <t>FID</t>
-  </si>
-  <si>
     <t>Day_1</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>Loc_10</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808C8E86-33FE-4C56-A502-AB3347977FFD}">
   <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="N367" sqref="N367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1535,43 +1535,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>367</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>368</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>369</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>370</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>371</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>373</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>374</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>375</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>376</v>
-      </c>
-      <c r="M1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1579,7 +1579,7 @@
         <v>37622</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -1621,7 +1621,7 @@
         <v>37623</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>37624</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>37625</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>37626</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>37627</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>37628</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>37629</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>37630</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>37631</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>37632</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>37633</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>37634</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>37635</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>37636</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>37637</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>37638</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>37639</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>37640</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>37641</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>37642</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>37643</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>37644</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>37645</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>37646</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>37647</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>37648</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>37649</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>37650</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2797,7 +2797,7 @@
         <v>37651</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2839,7 +2839,7 @@
         <v>37652</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2881,7 +2881,7 @@
         <v>37653</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -2923,7 +2923,7 @@
         <v>37654</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2965,7 +2965,7 @@
         <v>37655</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>37656</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>37657</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3091,7 +3091,7 @@
         <v>37658</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>24</v>
@@ -3133,7 +3133,7 @@
         <v>37659</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>37660</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>37661</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>37662</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>37663</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3343,7 +3343,7 @@
         <v>37664</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>37665</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>14</v>
@@ -3427,7 +3427,7 @@
         <v>37666</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3469,7 +3469,7 @@
         <v>37667</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3511,7 +3511,7 @@
         <v>37668</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>37669</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>37670</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>37671</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3679,7 +3679,7 @@
         <v>37672</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>14</v>
@@ -3721,7 +3721,7 @@
         <v>37673</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>37674</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>37675</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>37676</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>37677</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>16</v>
@@ -3931,7 +3931,7 @@
         <v>37678</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -3973,7 +3973,7 @@
         <v>37679</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -4015,7 +4015,7 @@
         <v>37680</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>37681</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>37682</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>37683</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4183,7 +4183,7 @@
         <v>37684</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>37685</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>37686</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>37687</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>37688</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4393,7 +4393,7 @@
         <v>37689</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>37690</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>37691</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>37692</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>37693</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -4603,7 +4603,7 @@
         <v>37694</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>37695</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>37696</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -4729,7 +4729,7 @@
         <v>37697</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -4771,7 +4771,7 @@
         <v>37698</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -4813,7 +4813,7 @@
         <v>37699</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -4855,7 +4855,7 @@
         <v>37700</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -4897,7 +4897,7 @@
         <v>37701</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -4939,7 +4939,7 @@
         <v>37702</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>37703</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>37704</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>37705</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>37706</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>37707</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -5191,7 +5191,7 @@
         <v>37708</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>37709</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>37710</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -5317,7 +5317,7 @@
         <v>37711</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -5359,7 +5359,7 @@
         <v>37712</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -5401,7 +5401,7 @@
         <v>37713</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>27</v>
@@ -5443,7 +5443,7 @@
         <v>37714</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -5485,7 +5485,7 @@
         <v>37715</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5527,7 +5527,7 @@
         <v>37716</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>37717</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5611,7 +5611,7 @@
         <v>37718</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>37719</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>37720</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -5737,7 +5737,7 @@
         <v>37721</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5779,7 +5779,7 @@
         <v>37722</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -5821,7 +5821,7 @@
         <v>37723</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -5863,7 +5863,7 @@
         <v>37724</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -5905,7 +5905,7 @@
         <v>37725</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -5947,7 +5947,7 @@
         <v>37726</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -5989,7 +5989,7 @@
         <v>37727</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -6031,7 +6031,7 @@
         <v>37728</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -6073,7 +6073,7 @@
         <v>37729</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>37730</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>37731</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>6</v>
@@ -6199,7 +6199,7 @@
         <v>37732</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6241,7 +6241,7 @@
         <v>37733</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>9</v>
@@ -6283,7 +6283,7 @@
         <v>37734</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>16</v>
@@ -6325,7 +6325,7 @@
         <v>37735</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         <v>37736</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>37737</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>25</v>
@@ -6451,7 +6451,7 @@
         <v>37738</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>21</v>
@@ -6493,7 +6493,7 @@
         <v>37739</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -6535,7 +6535,7 @@
         <v>37740</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>15</v>
@@ -6577,7 +6577,7 @@
         <v>37741</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>3</v>
@@ -6619,7 +6619,7 @@
         <v>37742</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>37743</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>37744</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>37745</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>37746</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>37747</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         <v>37748</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>37749</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -6955,7 +6955,7 @@
         <v>37750</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -6997,7 +6997,7 @@
         <v>37751</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>37752</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -7081,7 +7081,7 @@
         <v>37753</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -7123,7 +7123,7 @@
         <v>37754</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>37755</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -7207,7 +7207,7 @@
         <v>37756</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>37757</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>6</v>
@@ -7291,7 +7291,7 @@
         <v>37758</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>8</v>
@@ -7333,7 +7333,7 @@
         <v>37759</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139">
         <v>8</v>
@@ -7375,7 +7375,7 @@
         <v>37760</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -7417,7 +7417,7 @@
         <v>37761</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -7459,7 +7459,7 @@
         <v>37762</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -7501,7 +7501,7 @@
         <v>37763</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>37764</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -7585,7 +7585,7 @@
         <v>37765</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -7627,7 +7627,7 @@
         <v>37766</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -7669,7 +7669,7 @@
         <v>37767</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147">
         <v>7</v>
@@ -7711,7 +7711,7 @@
         <v>37768</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -7753,7 +7753,7 @@
         <v>37769</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149">
         <v>6</v>
@@ -7795,7 +7795,7 @@
         <v>37770</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -7837,7 +7837,7 @@
         <v>37771</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151">
         <v>19</v>
@@ -7879,7 +7879,7 @@
         <v>37772</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152">
         <v>30</v>
@@ -7921,7 +7921,7 @@
         <v>37773</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -7963,7 +7963,7 @@
         <v>37774</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>37775</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         <v>37776</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -8089,7 +8089,7 @@
         <v>37777</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -8131,7 +8131,7 @@
         <v>37778</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -8173,7 +8173,7 @@
         <v>37779</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159">
         <v>11</v>
@@ -8215,7 +8215,7 @@
         <v>37780</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -8257,7 +8257,7 @@
         <v>37781</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161">
         <v>7</v>
@@ -8299,7 +8299,7 @@
         <v>37782</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <v>14</v>
@@ -8341,7 +8341,7 @@
         <v>37783</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>36</v>
@@ -8383,7 +8383,7 @@
         <v>37784</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -8425,7 +8425,7 @@
         <v>37785</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>15</v>
@@ -8467,7 +8467,7 @@
         <v>37786</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166">
         <v>12</v>
@@ -8509,7 +8509,7 @@
         <v>37787</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -8551,7 +8551,7 @@
         <v>37788</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -8593,7 +8593,7 @@
         <v>37789</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -8635,7 +8635,7 @@
         <v>37790</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -8677,7 +8677,7 @@
         <v>37791</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>37792</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172">
         <v>7</v>
@@ -8761,7 +8761,7 @@
         <v>37793</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173">
         <v>21</v>
@@ -8803,7 +8803,7 @@
         <v>37794</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174">
         <v>15</v>
@@ -8845,7 +8845,7 @@
         <v>37795</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175">
         <v>24</v>
@@ -8887,7 +8887,7 @@
         <v>37796</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176">
         <v>55</v>
@@ -8929,7 +8929,7 @@
         <v>37797</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177">
         <v>3</v>
@@ -8971,7 +8971,7 @@
         <v>37798</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178">
         <v>19</v>
@@ -9013,7 +9013,7 @@
         <v>37799</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179">
         <v>23</v>
@@ -9055,7 +9055,7 @@
         <v>37800</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -9097,7 +9097,7 @@
         <v>37801</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181">
         <v>20</v>
@@ -9139,7 +9139,7 @@
         <v>37802</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>67</v>
@@ -9181,7 +9181,7 @@
         <v>37803</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183">
         <v>81</v>
@@ -9223,7 +9223,7 @@
         <v>37804</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184">
         <v>6</v>
@@ -9265,7 +9265,7 @@
         <v>37805</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -9307,7 +9307,7 @@
         <v>37806</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186">
         <v>46</v>
@@ -9349,7 +9349,7 @@
         <v>37807</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -9391,7 +9391,7 @@
         <v>37808</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -9433,7 +9433,7 @@
         <v>37809</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>34</v>
@@ -9475,7 +9475,7 @@
         <v>37810</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190">
         <v>34</v>
@@ -9517,7 +9517,7 @@
         <v>37811</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191">
         <v>62</v>
@@ -9559,7 +9559,7 @@
         <v>37812</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192">
         <v>33</v>
@@ -9601,7 +9601,7 @@
         <v>37813</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193">
         <v>6</v>
@@ -9643,7 +9643,7 @@
         <v>37814</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -9685,7 +9685,7 @@
         <v>37815</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>37816</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196">
         <v>52</v>
@@ -9769,7 +9769,7 @@
         <v>37817</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -9811,7 +9811,7 @@
         <v>37818</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -9853,7 +9853,7 @@
         <v>37819</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199">
         <v>27</v>
@@ -9895,7 +9895,7 @@
         <v>37820</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200">
         <v>20</v>
@@ -9937,7 +9937,7 @@
         <v>37821</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201">
         <v>17</v>
@@ -9979,7 +9979,7 @@
         <v>37822</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202">
         <v>25</v>
@@ -10021,7 +10021,7 @@
         <v>37823</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -10063,7 +10063,7 @@
         <v>37824</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204">
         <v>12</v>
@@ -10105,7 +10105,7 @@
         <v>37825</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205">
         <v>7</v>
@@ -10147,7 +10147,7 @@
         <v>37826</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -10189,7 +10189,7 @@
         <v>37827</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207">
         <v>6</v>
@@ -10231,7 +10231,7 @@
         <v>37828</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -10273,7 +10273,7 @@
         <v>37829</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209">
         <v>27</v>
@@ -10315,7 +10315,7 @@
         <v>37830</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210">
         <v>4</v>
@@ -10357,7 +10357,7 @@
         <v>37831</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211">
         <v>4</v>
@@ -10399,7 +10399,7 @@
         <v>37832</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212">
         <v>25</v>
@@ -10441,7 +10441,7 @@
         <v>37833</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213">
         <v>81</v>
@@ -10483,7 +10483,7 @@
         <v>37834</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214">
         <v>15</v>
@@ -10525,7 +10525,7 @@
         <v>37835</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -10567,7 +10567,7 @@
         <v>37836</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216">
         <v>4</v>
@@ -10609,7 +10609,7 @@
         <v>37837</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -10651,7 +10651,7 @@
         <v>37838</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -10693,7 +10693,7 @@
         <v>37839</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -10735,7 +10735,7 @@
         <v>37840</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -10777,7 +10777,7 @@
         <v>37841</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221">
         <v>36</v>
@@ -10819,7 +10819,7 @@
         <v>37842</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222">
         <v>16</v>
@@ -10861,7 +10861,7 @@
         <v>37843</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -10903,7 +10903,7 @@
         <v>37844</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224">
         <v>18</v>
@@ -10945,7 +10945,7 @@
         <v>37845</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -10987,7 +10987,7 @@
         <v>37846</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226">
         <v>2</v>
@@ -11029,7 +11029,7 @@
         <v>37847</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -11071,7 +11071,7 @@
         <v>37848</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228">
         <v>9</v>
@@ -11113,7 +11113,7 @@
         <v>37849</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>37850</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -11197,7 +11197,7 @@
         <v>37851</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231">
         <v>36</v>
@@ -11239,7 +11239,7 @@
         <v>37852</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232">
         <v>9</v>
@@ -11281,7 +11281,7 @@
         <v>37853</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>37854</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -11365,7 +11365,7 @@
         <v>37855</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -11407,7 +11407,7 @@
         <v>37856</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236">
         <v>42</v>
@@ -11449,7 +11449,7 @@
         <v>37857</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -11491,7 +11491,7 @@
         <v>37858</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -11533,7 +11533,7 @@
         <v>37859</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>37860</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>37861</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241">
         <v>6</v>
@@ -11659,7 +11659,7 @@
         <v>37862</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -11701,7 +11701,7 @@
         <v>37863</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -11743,7 +11743,7 @@
         <v>37864</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244">
         <v>8</v>
@@ -11785,7 +11785,7 @@
         <v>37865</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C245">
         <v>51</v>
@@ -11827,7 +11827,7 @@
         <v>37866</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246">
         <v>7</v>
@@ -11869,7 +11869,7 @@
         <v>37867</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247">
         <v>7</v>
@@ -11911,7 +11911,7 @@
         <v>37868</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248">
         <v>15</v>
@@ -11953,7 +11953,7 @@
         <v>37869</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249">
         <v>10</v>
@@ -11995,7 +11995,7 @@
         <v>37870</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -12037,7 +12037,7 @@
         <v>37871</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251">
         <v>7</v>
@@ -12079,7 +12079,7 @@
         <v>37872</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -12121,7 +12121,7 @@
         <v>37873</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253">
         <v>13</v>
@@ -12163,7 +12163,7 @@
         <v>37874</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -12205,7 +12205,7 @@
         <v>37875</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -12247,7 +12247,7 @@
         <v>37876</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -12289,7 +12289,7 @@
         <v>37877</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257">
         <v>18</v>
@@ -12331,7 +12331,7 @@
         <v>37878</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258">
         <v>12</v>
@@ -12373,7 +12373,7 @@
         <v>37879</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259">
         <v>31</v>
@@ -12415,7 +12415,7 @@
         <v>37880</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260">
         <v>6</v>
@@ -12457,7 +12457,7 @@
         <v>37881</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -12499,7 +12499,7 @@
         <v>37882</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262">
         <v>12</v>
@@ -12541,7 +12541,7 @@
         <v>37883</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -12583,7 +12583,7 @@
         <v>37884</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264">
         <v>9</v>
@@ -12625,7 +12625,7 @@
         <v>37885</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265">
         <v>7</v>
@@ -12667,7 +12667,7 @@
         <v>37886</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266">
         <v>4</v>
@@ -12709,7 +12709,7 @@
         <v>37887</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -12751,7 +12751,7 @@
         <v>37888</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -12793,7 +12793,7 @@
         <v>37889</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269">
         <v>16</v>
@@ -12835,7 +12835,7 @@
         <v>37890</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>37891</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -12919,7 +12919,7 @@
         <v>37892</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272">
         <v>3</v>
@@ -12961,7 +12961,7 @@
         <v>37893</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -13003,7 +13003,7 @@
         <v>37894</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274">
         <v>2</v>
@@ -13045,7 +13045,7 @@
         <v>37895</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275">
         <v>3</v>
@@ -13087,7 +13087,7 @@
         <v>37896</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276">
         <v>10</v>
@@ -13129,7 +13129,7 @@
         <v>37897</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>37898</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -13213,7 +13213,7 @@
         <v>37899</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -13255,7 +13255,7 @@
         <v>37900</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -13297,7 +13297,7 @@
         <v>37901</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>37902</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282">
         <v>16</v>
@@ -13381,7 +13381,7 @@
         <v>37903</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283">
         <v>64</v>
@@ -13423,7 +13423,7 @@
         <v>37904</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284">
         <v>20</v>
@@ -13465,7 +13465,7 @@
         <v>37905</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>37906</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -13549,7 +13549,7 @@
         <v>37907</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -13591,7 +13591,7 @@
         <v>37908</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>37909</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -13675,7 +13675,7 @@
         <v>37910</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -13717,7 +13717,7 @@
         <v>37911</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -13759,7 +13759,7 @@
         <v>37912</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -13801,7 +13801,7 @@
         <v>37913</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -13843,7 +13843,7 @@
         <v>37914</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -13885,7 +13885,7 @@
         <v>37915</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -13927,7 +13927,7 @@
         <v>37916</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>37917</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>37918</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>37919</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C299">
         <v>13</v>
@@ -14095,7 +14095,7 @@
         <v>37920</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300">
         <v>26</v>
@@ -14137,7 +14137,7 @@
         <v>37921</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C301">
         <v>2</v>
@@ -14179,7 +14179,7 @@
         <v>37922</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -14221,7 +14221,7 @@
         <v>37923</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -14263,7 +14263,7 @@
         <v>37924</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -14305,7 +14305,7 @@
         <v>37925</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305">
         <v>6</v>
@@ -14347,7 +14347,7 @@
         <v>37926</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -14389,7 +14389,7 @@
         <v>37927</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -14431,7 +14431,7 @@
         <v>37928</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -14473,7 +14473,7 @@
         <v>37929</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>37930</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -14557,7 +14557,7 @@
         <v>37931</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -14599,7 +14599,7 @@
         <v>37932</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -14641,7 +14641,7 @@
         <v>37933</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -14683,7 +14683,7 @@
         <v>37934</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -14725,7 +14725,7 @@
         <v>37935</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -14767,7 +14767,7 @@
         <v>37936</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -14809,7 +14809,7 @@
         <v>37937</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -14851,7 +14851,7 @@
         <v>37938</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>37939</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>37940</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -14977,7 +14977,7 @@
         <v>37941</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -15019,7 +15019,7 @@
         <v>37942</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>37943</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -15103,7 +15103,7 @@
         <v>37944</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>37945</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>37946</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -15229,7 +15229,7 @@
         <v>37947</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -15271,7 +15271,7 @@
         <v>37948</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>37949</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>37950</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -15397,7 +15397,7 @@
         <v>37951</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -15439,7 +15439,7 @@
         <v>37952</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -15481,7 +15481,7 @@
         <v>37953</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         <v>37954</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -15565,7 +15565,7 @@
         <v>37955</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -15607,7 +15607,7 @@
         <v>37956</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -15649,7 +15649,7 @@
         <v>37957</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -15691,7 +15691,7 @@
         <v>37958</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>37959</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -15775,7 +15775,7 @@
         <v>37960</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -15817,7 +15817,7 @@
         <v>37961</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>37962</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -15901,7 +15901,7 @@
         <v>37963</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>37964</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>37965</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         <v>37966</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -16069,7 +16069,7 @@
         <v>37967</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>37968</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -16153,7 +16153,7 @@
         <v>37969</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>37970</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -16237,7 +16237,7 @@
         <v>37971</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>37972</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -16321,7 +16321,7 @@
         <v>37973</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>37974</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>37975</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -16447,7 +16447,7 @@
         <v>37976</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -16489,7 +16489,7 @@
         <v>37977</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         <v>37978</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -16573,7 +16573,7 @@
         <v>37979</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>37980</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -16657,7 +16657,7 @@
         <v>37981</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         <v>37982</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -16741,7 +16741,7 @@
         <v>37983</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C363">
         <v>11</v>
@@ -16783,7 +16783,7 @@
         <v>37984</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C364">
         <v>21</v>
@@ -16825,7 +16825,7 @@
         <v>37985</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -16867,7 +16867,7 @@
         <v>37986</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C366">
         <v>0</v>
